--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_376__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_376__Reeval_Sobol_Modell_1.3.xlsx
@@ -6121,7 +6121,7 @@
                   <c:v>81.36673736572266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.65910339355469</c:v>
+                  <c:v>72.65909576416016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70.34487152099609</c:v>
@@ -6154,13 +6154,13 @@
                   <c:v>83.69967651367188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.67202758789062</c:v>
+                  <c:v>86.67201995849609</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>31.70111465454102</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91.73548126220703</c:v>
+                  <c:v>91.7354736328125</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>70.06146240234375</c:v>
@@ -6175,22 +6175,22 @@
                   <c:v>82.74080657958984</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>77.80657958984375</c:v>
+                  <c:v>77.80657196044922</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49.73028182983398</c:v>
+                  <c:v>49.73027801513672</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.94233131408691</c:v>
+                  <c:v>30.94233322143555</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>54.94377899169922</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45.6489143371582</c:v>
+                  <c:v>45.64891052246094</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83.00520324707031</c:v>
+                  <c:v>83.00519561767578</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>59.1590690612793</c:v>
@@ -6202,7 +6202,7 @@
                   <c:v>71.23944854736328</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>79.90135955810547</c:v>
+                  <c:v>79.90137481689453</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>78.27426147460938</c:v>
@@ -6214,7 +6214,7 @@
                   <c:v>93.35650634765625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>80.08724975585938</c:v>
+                  <c:v>80.08724212646484</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>84.10041046142578</c:v>
@@ -6247,13 +6247,13 @@
                   <c:v>75.08028411865234</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.04045104980469</c:v>
+                  <c:v>51.04044342041016</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>74.45355987548828</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>77.26526641845703</c:v>
+                  <c:v>77.26527404785156</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>92.38768768310547</c:v>
@@ -6286,7 +6286,7 @@
                   <c:v>68.88382720947266</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>52.04929733276367</c:v>
+                  <c:v>52.04929351806641</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>79.89564514160156</c:v>
@@ -6298,10 +6298,10 @@
                   <c:v>69.84268188476562</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>86.02506256103516</c:v>
+                  <c:v>86.02507019042969</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>79.99755859375</c:v>
+                  <c:v>79.99756622314453</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>84.36251831054688</c:v>
@@ -6310,13 +6310,13 @@
                   <c:v>76.72038269042969</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>35.88940811157227</c:v>
+                  <c:v>35.889404296875</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>76.68212127685547</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>84.09840393066406</c:v>
+                  <c:v>84.09841156005859</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>84.69290924072266</c:v>
@@ -6325,7 +6325,7 @@
                   <c:v>80.94718933105469</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>84.60155487060547</c:v>
+                  <c:v>84.60154724121094</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>68.70736694335938</c:v>
@@ -6337,7 +6337,7 @@
                   <c:v>34.48395919799805</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>82.29220581054688</c:v>
+                  <c:v>82.29219818115234</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>65.87916564941406</c:v>
@@ -6346,7 +6346,7 @@
                   <c:v>100.9905853271484</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>26.98555946350098</c:v>
+                  <c:v>26.98555755615234</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>46.85915756225586</c:v>
@@ -6358,7 +6358,7 @@
                   <c:v>55.08813095092773</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>65.67301940917969</c:v>
+                  <c:v>65.67301177978516</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>74.71929168701172</c:v>
@@ -6385,7 +6385,7 @@
                   <c:v>87.52454376220703</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>59.88169860839844</c:v>
+                  <c:v>59.88169097900391</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>79.38887023925781</c:v>
@@ -7151,7 +7151,7 @@
         <v>63.5721</v>
       </c>
       <c r="F3">
-        <v>72.65910339355469</v>
+        <v>72.65909576416016</v>
       </c>
       <c r="G3">
         <v>102</v>
@@ -7431,7 +7431,7 @@
         <v>84.10420000000001</v>
       </c>
       <c r="F14">
-        <v>86.67202758789062</v>
+        <v>86.67201995849609</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>92.27889999999999</v>
       </c>
       <c r="F16">
-        <v>91.73548126220703</v>
+        <v>91.7354736328125</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>76.9473</v>
       </c>
       <c r="F21">
-        <v>77.80657958984375</v>
+        <v>77.80657196044922</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>54.2093</v>
       </c>
       <c r="F22">
-        <v>49.73028182983398</v>
+        <v>49.73027801513672</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>30.94233131408691</v>
+        <v>30.94233322143555</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>43.7599</v>
       </c>
       <c r="F25">
-        <v>45.6489143371582</v>
+        <v>45.64891052246094</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>79.8796</v>
       </c>
       <c r="F26">
-        <v>83.00520324707031</v>
+        <v>83.00519561767578</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>78.3235</v>
       </c>
       <c r="F30">
-        <v>79.90135955810547</v>
+        <v>79.90137481689453</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>80.1123</v>
       </c>
       <c r="F34">
-        <v>80.08724975585938</v>
+        <v>80.08724212646484</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>39.188</v>
       </c>
       <c r="F45">
-        <v>51.04045104980469</v>
+        <v>51.04044342041016</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>75.5748</v>
       </c>
       <c r="F47">
-        <v>77.26526641845703</v>
+        <v>77.26527404785156</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>52.04929733276367</v>
+        <v>52.04929351806641</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>90.9457</v>
       </c>
       <c r="F62">
-        <v>86.02506256103516</v>
+        <v>86.02507019042969</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>80.29730000000001</v>
       </c>
       <c r="F63">
-        <v>79.99755859375</v>
+        <v>79.99756622314453</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>38.8903</v>
       </c>
       <c r="F66">
-        <v>35.88940811157227</v>
+        <v>35.889404296875</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>89.6302</v>
       </c>
       <c r="F68">
-        <v>84.09840393066406</v>
+        <v>84.09841156005859</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>83.73390000000001</v>
       </c>
       <c r="F71">
-        <v>84.60155487060547</v>
+        <v>84.60154724121094</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>86.751</v>
       </c>
       <c r="F75">
-        <v>82.29220581054688</v>
+        <v>82.29219818115234</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>26.98555946350098</v>
+        <v>26.98555755615234</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>58.0646</v>
       </c>
       <c r="F82">
-        <v>65.67301940917969</v>
+        <v>65.67301177978516</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>57.9143</v>
       </c>
       <c r="F91">
-        <v>59.88169860839844</v>
+        <v>59.88169097900391</v>
       </c>
     </row>
     <row r="92" spans="1:6">
